--- a/Technology/Hardware/Cisco Systems.xlsx
+++ b/Technology/Hardware/Cisco Systems.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8886E-F64B-2049-8B14-36D0020D5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E2FEF-469D-6F44-85DE-FCDB16D780E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,18 +568,25 @@
   </si>
   <si>
     <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -745,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -851,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -923,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -965,76 +922,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
@@ -1044,31 +943,76 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,7 +1063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CSCO</a:t>
+              <a:t>Cisco Systems</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1158,10 +1102,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.580495867768595E-2"/>
-          <c:y val="0.12026848211054188"/>
-          <c:w val="0.84675702479338832"/>
-          <c:h val="0.72831891116399616"/>
+          <c:x val="9.6383471074380153E-2"/>
+          <c:y val="0.1574149240571189"/>
+          <c:w val="0.83617851239669416"/>
+          <c:h val="0.65402587277609714"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1797,8 +1741,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34847306566018088"/>
-          <c:y val="0.9231509436717017"/>
+          <c:x val="0.35772926400728833"/>
+          <c:y val="0.91639702009180524"/>
           <c:w val="0.30305376456042166"/>
           <c:h val="5.0011603308249185E-2"/>
         </c:manualLayout>
@@ -2380,14 +2324,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2414,6 +2358,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0410000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2538,9 +2546,11 @@
     <v>Powered by Refinitiv</v>
     <v>52.56</v>
     <v>38.604999999999997</v>
-    <v>0.98319999999999996</v>
-    <v>0.27</v>
-    <v>5.3100000000000005E-3</v>
+    <v>0.98829999999999996</v>
+    <v>-0.12</v>
+    <v>-2.3480000000000003E-3</v>
+    <v>0.01</v>
+    <v>1.961E-4</v>
     <v>USD</v>
     <v>Cisco Systems, Inc. is engaged in designing and selling a range of technologies that power the Internet. The Company is integrating its platforms across networking, security, collaboration, applications and the cloud. The Company operates through three geographic segments: the Americas; Europe, Middle East, and Africa (EMEA), and Asia Pacific, Japan, and China (APJC). The Company's products categories include Secure, Agile Networks; Internet for the Future; Collaboration; End-to-End Security; Optimized Application Experiences; Other Products, and Services. Secure, Agile Networks consists of its core networking technologies of switching, enterprise routing, wireless, and compute products. Internet for the Future consists of its routed optical networking, public fifth generation (5G), silicon, and optics offerings. Collaboration consists of its Collaboration Devices, Meetings, Calling and contact center offerings. End-to-End Security consists of its overall security offerings.</v>
     <v>83300</v>
@@ -2548,24 +2558,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>170 West Tasman Dr, SAN JOSE, CA, 95134-1706 US</v>
-    <v>51.14</v>
+    <v>51.65</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45099.999874513283</v>
+    <v>45114.999665705465</v>
     <v>0</v>
-    <v>50.429099999999998</v>
-    <v>208316964960</v>
+    <v>50.74</v>
+    <v>207787200000</v>
     <v>CISCO SYSTEMS, INC.</v>
     <v>CISCO SYSTEMS, INC.</v>
-    <v>50.65</v>
-    <v>18.380299999999998</v>
-    <v>50.85</v>
-    <v>51.12</v>
+    <v>51</v>
+    <v>18.3767</v>
+    <v>51.11</v>
+    <v>50.99</v>
+    <v>51</v>
     <v>4075058000</v>
     <v>CSCO</v>
     <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
-    <v>4414</v>
-    <v>21659788</v>
+    <v>15580380</v>
+    <v>18033790</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2597,6 +2608,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2617,6 +2630,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2633,7 +2647,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2644,13 +2658,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2716,13 +2733,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2767,6 +2790,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2774,6 +2800,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3135,10 +3164,10 @@
   <dimension ref="A1:AS118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL101" sqref="AL101"/>
+      <selection pane="bottomRight" activeCell="AM93" sqref="AM93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3257,19 +3286,19 @@
       <c r="AJ1" s="8">
         <v>2022</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="23">
         <v>2023</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="23">
         <v>2024</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2025</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2026</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3503,19 +3532,19 @@
       <c r="AJ3" s="1">
         <v>51557000000</v>
       </c>
-      <c r="AK3" s="28">
+      <c r="AK3" s="24">
         <v>56846000000</v>
       </c>
-      <c r="AL3" s="28">
+      <c r="AL3" s="24">
         <v>58459000000</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="24">
         <v>60317000000</v>
       </c>
-      <c r="AN3" s="28">
+      <c r="AN3" s="24">
         <v>63022000000</v>
       </c>
-      <c r="AO3" s="28">
+      <c r="AO3" s="24">
         <v>65142000000</v>
       </c>
       <c r="AP3" s="18" t="s">
@@ -5194,21 +5223,21 @@
       <c r="AJ16" s="1">
         <v>37582000000</v>
       </c>
-      <c r="AP16" s="29">
+      <c r="AP16" s="25">
         <f>(AJ35+AI35+AH35+AG35+AF35)/5</f>
         <v>-3.605366163012387E-2</v>
       </c>
-      <c r="AQ16" s="65">
+      <c r="AQ16" s="37">
         <f>AR101/AJ3</f>
-        <v>4.0405175817056849</v>
-      </c>
-      <c r="AR16" s="65">
+        <v>4.0302422561436853</v>
+      </c>
+      <c r="AR16" s="37">
         <f>AR101/AJ28</f>
-        <v>17.636045120216728</v>
-      </c>
-      <c r="AS16" s="66">
+        <v>17.591195394514052</v>
+      </c>
+      <c r="AS16" s="38">
         <f>AR101/AJ107</f>
-        <v>16.339867045258451</v>
+        <v>16.298313593222996</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5552,36 +5581,36 @@
       <c r="AJ19" s="10">
         <v>16794000000</v>
       </c>
-      <c r="AK19" s="63">
+      <c r="AK19" s="35">
         <v>20643000000</v>
       </c>
-      <c r="AL19" s="63">
+      <c r="AL19" s="35">
         <v>21138000000</v>
       </c>
-      <c r="AM19" s="63">
+      <c r="AM19" s="35">
         <v>21040000000</v>
       </c>
-      <c r="AN19" s="63">
+      <c r="AN19" s="35">
         <v>16609000000</v>
       </c>
-      <c r="AO19" s="63">
+      <c r="AO19" s="35">
         <v>17168000000</v>
       </c>
-      <c r="AP19" s="30">
+      <c r="AP19" s="26">
         <f>AJ40-AJ56-AJ61</f>
         <v>9752000000</v>
       </c>
-      <c r="AQ19" s="65">
+      <c r="AQ19" s="37">
         <f>AR101/AK3</f>
-        <v>3.6645844027724026</v>
-      </c>
-      <c r="AR19" s="65">
+        <v>3.6552651022059601</v>
+      </c>
+      <c r="AR19" s="37">
         <f>AR101/AK28</f>
-        <v>13.328873565807154</v>
-      </c>
-      <c r="AS19" s="66">
+        <v>13.294977285814831</v>
+      </c>
+      <c r="AS19" s="38">
         <f>AR101/AK106</f>
-        <v>12.341052426540285</v>
+        <v>12.309668246445497</v>
       </c>
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,7 +5775,7 @@
         <v>3.3656451321572689E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5855,25 +5884,31 @@
       <c r="AJ21" s="2">
         <v>0.32569999999999999</v>
       </c>
-      <c r="AK21" s="64">
+      <c r="AK21" s="36">
         <f>AK19/AK3</f>
         <v>0.36313900714210323</v>
       </c>
-      <c r="AL21" s="64">
+      <c r="AL21" s="36">
         <f t="shared" ref="AL21:AO21" si="9">AL19/AL3</f>
         <v>0.36158675310901656</v>
       </c>
-      <c r="AM21" s="64">
+      <c r="AM21" s="36">
         <f t="shared" si="9"/>
         <v>0.34882371470729645</v>
       </c>
-      <c r="AN21" s="64">
+      <c r="AN21" s="36">
         <f t="shared" si="9"/>
         <v>0.26354288978451967</v>
       </c>
-      <c r="AO21" s="64">
+      <c r="AO21" s="36">
         <f t="shared" si="9"/>
         <v>0.26354732737711462</v>
+      </c>
+      <c r="AR21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS21" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5985,6 +6020,14 @@
       <c r="AJ22" s="10">
         <v>13969000000</v>
       </c>
+      <c r="AR22" s="39">
+        <f>(-1*AJ98)/AR101</f>
+        <v>2.9953721884697422E-2</v>
+      </c>
+      <c r="AS22" s="40">
+        <f>AJ107/AR101</f>
+        <v>6.1356041180592451E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6645,19 +6688,19 @@
       <c r="AJ28" s="11">
         <v>11812000000</v>
       </c>
-      <c r="AK28" s="61">
+      <c r="AK28" s="33">
         <v>15629000000</v>
       </c>
-      <c r="AL28" s="61">
+      <c r="AL28" s="33">
         <v>15461000000</v>
       </c>
-      <c r="AM28" s="61">
+      <c r="AM28" s="33">
         <v>17222000000</v>
       </c>
-      <c r="AN28" s="61">
+      <c r="AN28" s="33">
         <v>16994000000</v>
       </c>
-      <c r="AO28" s="61">
+      <c r="AO28" s="33">
         <v>17640000000</v>
       </c>
     </row>
@@ -6932,23 +6975,23 @@
       <c r="AJ30" s="2">
         <v>0.2291</v>
       </c>
-      <c r="AK30" s="62">
+      <c r="AK30" s="34">
         <f>AK28/AK3</f>
         <v>0.2749357914365127</v>
       </c>
-      <c r="AL30" s="62">
+      <c r="AL30" s="34">
         <f t="shared" ref="AL30:AO30" si="16">AL28/AL3</f>
         <v>0.2644759575086813</v>
       </c>
-      <c r="AM30" s="62">
+      <c r="AM30" s="34">
         <f t="shared" si="16"/>
         <v>0.28552481058408075</v>
       </c>
-      <c r="AN30" s="62">
+      <c r="AN30" s="34">
         <f t="shared" si="16"/>
         <v>0.26965186760178983</v>
       </c>
-      <c r="AO30" s="62">
+      <c r="AO30" s="34">
         <f t="shared" si="16"/>
         <v>0.27079303675048355</v>
       </c>
@@ -12849,10 +12892,10 @@
       <c r="AJ83" s="1">
         <v>-1030000000</v>
       </c>
-      <c r="AQ83" s="69" t="s">
+      <c r="AQ83" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="AR83" s="70"/>
+      <c r="AR83" s="42"/>
     </row>
     <row r="84" spans="1:44" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12963,10 +13006,10 @@
       <c r="AJ84" s="1">
         <v>-55000000</v>
       </c>
-      <c r="AQ84" s="71" t="s">
+      <c r="AQ84" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AR84" s="72"/>
+      <c r="AR84" s="43"/>
     </row>
     <row r="85" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13077,10 +13120,10 @@
       <c r="AJ85" s="1">
         <v>211000000</v>
       </c>
-      <c r="AQ85" s="23" t="s">
+      <c r="AQ85" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="AR85" s="24">
+      <c r="AR85" s="45">
         <f>AJ17</f>
         <v>360000000</v>
       </c>
@@ -13194,10 +13237,10 @@
       <c r="AJ86" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AQ86" s="23" t="s">
+      <c r="AQ86" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AR86" s="24">
+      <c r="AR86" s="45">
         <f>AJ56</f>
         <v>1099000000</v>
       </c>
@@ -13311,10 +13354,10 @@
       <c r="AJ87" s="10">
         <v>13226000000</v>
       </c>
-      <c r="AQ87" s="23" t="s">
+      <c r="AQ87" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="AR87" s="24">
+      <c r="AR87" s="45">
         <f>AJ61</f>
         <v>8416000000</v>
       </c>
@@ -13428,10 +13471,10 @@
       <c r="AJ88" s="1">
         <v>-477000000</v>
       </c>
-      <c r="AQ88" s="31" t="s">
+      <c r="AQ88" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="AR88" s="32">
+      <c r="AR88" s="47">
         <f>AR85/(AR86+AR87)</f>
         <v>3.783499737256963E-2</v>
       </c>
@@ -13580,10 +13623,10 @@
         <f t="shared" si="19"/>
         <v>9.2518959598114712E-3</v>
       </c>
-      <c r="AQ89" s="23" t="s">
+      <c r="AQ89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="AR89" s="24">
+      <c r="AR89" s="45">
         <f>AJ27</f>
         <v>2665000000</v>
       </c>
@@ -13697,10 +13740,10 @@
       <c r="AJ90" s="1">
         <v>-373000000</v>
       </c>
-      <c r="AQ90" s="23" t="s">
+      <c r="AQ90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AR90" s="24">
+      <c r="AR90" s="45">
         <f>AJ25</f>
         <v>14477000000</v>
       </c>
@@ -13814,10 +13857,10 @@
       <c r="AJ91" s="1">
         <v>-6256000000</v>
       </c>
-      <c r="AQ91" s="31" t="s">
+      <c r="AQ91" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="AR91" s="32">
+      <c r="AR91" s="47">
         <f>AR89/AR90</f>
         <v>0.18408510050424812</v>
       </c>
@@ -13931,10 +13974,10 @@
       <c r="AJ92" s="1">
         <v>8583000000</v>
       </c>
-      <c r="AQ92" s="33" t="s">
+      <c r="AQ92" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AR92" s="34">
+      <c r="AR92" s="47">
         <f>AR88*(1-AR91)</f>
         <v>3.0870138078662186E-2</v>
       </c>
@@ -14048,10 +14091,10 @@
       <c r="AJ93" s="1">
         <v>76000000</v>
       </c>
-      <c r="AQ93" s="71" t="s">
+      <c r="AQ93" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="AR93" s="72"/>
+      <c r="AR93" s="43"/>
     </row>
     <row r="94" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14162,11 +14205,12 @@
       <c r="AJ94" s="10">
         <v>1553000000</v>
       </c>
-      <c r="AQ94" s="23" t="s">
+      <c r="AQ94" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="AR94" s="35">
-        <v>4.095E-2</v>
+      <c r="AR94" s="67">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14278,12 +14322,12 @@
       <c r="AJ95" s="1">
         <v>-3550000000</v>
       </c>
-      <c r="AQ95" s="36" t="s">
+      <c r="AQ95" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="AR95" s="37" cm="1">
+      <c r="AR95" s="50" cm="1">
         <f t="array" ref="AR95">_FV(A1,"Beta")</f>
-        <v>0.98319999999999996</v>
+        <v>0.98829999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14395,10 +14439,10 @@
       <c r="AJ96" s="1">
         <v>660000000</v>
       </c>
-      <c r="AQ96" s="23" t="s">
+      <c r="AQ96" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="AR96" s="35">
+      <c r="AR96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14511,12 +14555,12 @@
       <c r="AJ97" s="1">
         <v>-8381000000</v>
       </c>
-      <c r="AQ97" s="33" t="s">
+      <c r="AQ97" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AR97" s="34">
+      <c r="AR97" s="47">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>8.3276760000000005E-2</v>
+        <v>8.348999700000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14628,10 +14672,10 @@
       <c r="AJ98" s="1">
         <v>-6224000000</v>
       </c>
-      <c r="AQ98" s="71" t="s">
+      <c r="AQ98" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AR98" s="72"/>
+      <c r="AR98" s="43"/>
     </row>
     <row r="99" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14742,10 +14786,10 @@
       <c r="AJ99" s="1">
         <v>1533000000</v>
       </c>
-      <c r="AQ99" s="23" t="s">
+      <c r="AQ99" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="AR99" s="24">
+      <c r="AR99" s="45">
         <f>AR86+AR87</f>
         <v>9515000000</v>
       </c>
@@ -14859,12 +14903,12 @@
       <c r="AJ100" s="10">
         <v>-15962000000</v>
       </c>
-      <c r="AQ100" s="31" t="s">
+      <c r="AQ100" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="AR100" s="32">
+      <c r="AR100" s="47">
         <f>AR99/AR103</f>
-        <v>4.3680458016100703E-2</v>
+        <v>4.3786947393997855E-2</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14976,12 +15020,12 @@
       <c r="AJ101" s="1">
         <v>-180000000</v>
       </c>
-      <c r="AQ101" s="36" t="s">
+      <c r="AQ101" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="AR101" s="38" cm="1">
+      <c r="AR101" s="51" cm="1">
         <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
-        <v>208316964960</v>
+        <v>207787200000</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15093,12 +15137,12 @@
       <c r="AJ102" s="10">
         <v>-1363000000</v>
       </c>
-      <c r="AQ102" s="31" t="s">
+      <c r="AQ102" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AR102" s="32">
+      <c r="AR102" s="47">
         <f>AR101/AR103</f>
-        <v>0.95631954198389935</v>
+        <v>0.9562130526060022</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15210,12 +15254,12 @@
       <c r="AJ103" s="1">
         <v>9942000000</v>
       </c>
-      <c r="AQ103" s="33" t="s">
+      <c r="AQ103" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="AR103" s="39">
+      <c r="AR103" s="52">
         <f>AR99+AR101</f>
-        <v>217831964960</v>
+        <v>217302200000</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15327,10 +15371,10 @@
       <c r="AJ104" s="11">
         <v>8579000000</v>
       </c>
-      <c r="AQ104" s="71" t="s">
+      <c r="AQ104" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="AR104" s="72"/>
+      <c r="AR104" s="43"/>
     </row>
     <row r="105" spans="1:44" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15472,35 +15516,35 @@
         <f>((AJ22*(1-$AT$91))+AJ77+AJ88-AJ81)</f>
         <v>17171000000</v>
       </c>
-      <c r="AK105" s="40">
+      <c r="AK105" s="27">
         <f>AJ105*(1+$AR$106)</f>
         <v>17999427931.605091</v>
       </c>
-      <c r="AL105" s="40">
+      <c r="AL105" s="27">
         <f>AK105*(1+$AR$106)</f>
         <v>18867823997.73138</v>
       </c>
-      <c r="AM105" s="40">
+      <c r="AM105" s="27">
         <f>AL105*(1+$AR$106)</f>
         <v>19778116491.373539</v>
       </c>
-      <c r="AN105" s="40">
+      <c r="AN105" s="27">
         <f>AM105*(1+$AR$106)</f>
         <v>20732326737.485771</v>
       </c>
-      <c r="AO105" s="40">
+      <c r="AO105" s="27">
         <f>AN105*(1+$AR$106)</f>
         <v>21732573581.37933</v>
       </c>
-      <c r="AP105" s="41" t="s">
+      <c r="AP105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AQ105" s="25" t="s">
+      <c r="AQ105" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AR105" s="26">
+      <c r="AR105" s="54">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>8.0987614751399345E-2</v>
+        <v>8.1185934005531799E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15644,34 +15688,34 @@
         <f>(AJ105/AI105)-1</f>
         <v>0.42865463016889915</v>
       </c>
-      <c r="AK106" s="59">
+      <c r="AK106" s="31">
         <v>16880000000</v>
       </c>
-      <c r="AL106" s="59">
+      <c r="AL106" s="31">
         <v>16640000000</v>
       </c>
-      <c r="AM106" s="59">
+      <c r="AM106" s="31">
         <v>16339000000</v>
       </c>
-      <c r="AN106" s="59">
+      <c r="AN106" s="31">
         <v>15237000000</v>
       </c>
-      <c r="AO106" s="59">
+      <c r="AO106" s="31">
         <v>15493000000</v>
       </c>
-      <c r="AP106" s="45" t="s">
+      <c r="AP106" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AQ106" s="42" t="s">
+      <c r="AQ106" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="AR106" s="43">
+      <c r="AR106" s="56">
         <f>(SUM(AK4:AO4)/5)</f>
         <v>4.8245759222240503E-2</v>
       </c>
     </row>
     <row r="107" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="58" t="s">
+      <c r="A107" s="30" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -15779,139 +15823,139 @@
       <c r="AJ107" s="1">
         <v>12749000000</v>
       </c>
-      <c r="AK107" s="41"/>
-      <c r="AL107" s="41"/>
-      <c r="AM107" s="41"/>
-      <c r="AN107" s="41"/>
-      <c r="AO107" s="60">
+      <c r="AK107" s="28"/>
+      <c r="AL107" s="28"/>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="32">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>220431832437.24271</v>
-      </c>
-      <c r="AP107" s="45" t="s">
+        <v>219817724085.54773</v>
+      </c>
+      <c r="AP107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AQ107" s="46" t="s">
+      <c r="AQ107" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AR107" s="47">
+      <c r="AR107" s="58">
         <v>0.01</v>
       </c>
     </row>
     <row r="108" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="AK108" s="44">
-        <f>AK107+AK105</f>
-        <v>17999427931.605091</v>
-      </c>
-      <c r="AL108" s="44">
-        <f>AL107+AL105</f>
-        <v>18867823997.73138</v>
-      </c>
-      <c r="AM108" s="44">
-        <f>AM107+AM105</f>
-        <v>19778116491.373539</v>
-      </c>
-      <c r="AN108" s="44">
-        <f>AN107+AN105</f>
-        <v>20732326737.485771</v>
-      </c>
-      <c r="AO108" s="60">
+      <c r="AK108" s="32">
+        <f t="shared" ref="AK108:AN108" si="22">AK107+AK106</f>
+        <v>16880000000</v>
+      </c>
+      <c r="AL108" s="32">
+        <f t="shared" si="22"/>
+        <v>16640000000</v>
+      </c>
+      <c r="AM108" s="32">
+        <f t="shared" si="22"/>
+        <v>16339000000</v>
+      </c>
+      <c r="AN108" s="32">
+        <f t="shared" si="22"/>
+        <v>15237000000</v>
+      </c>
+      <c r="AO108" s="32">
         <f>AO107+AO106</f>
-        <v>235924832437.24271</v>
-      </c>
-      <c r="AP108" s="45" t="s">
+        <v>235310724085.54773</v>
+      </c>
+      <c r="AP108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AQ108" s="48" t="s">
+      <c r="AQ108" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="56">
         <f>AR105</f>
-        <v>8.0987614751399345E-2</v>
+        <v>8.1185934005531799E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="AK109" s="67" t="s">
+      <c r="AK109" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="AL109" s="68"/>
+      <c r="AL109" s="60"/>
     </row>
     <row r="110" spans="1:44" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK110" s="50" t="s">
+      <c r="AK110" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="AL110" s="38">
+      <c r="AL110" s="51">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>223472591897.94684</v>
+        <v>213197835907.02539</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK111" s="50" t="s">
+      <c r="AK111" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="AL111" s="38">
+      <c r="AL111" s="51">
         <f>AJ40</f>
         <v>19267000000</v>
       </c>
     </row>
     <row r="112" spans="1:44" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK112" s="50" t="s">
+      <c r="AK112" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AL112" s="38">
+      <c r="AL112" s="51">
         <f>AR99</f>
         <v>9515000000</v>
       </c>
     </row>
     <row r="113" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK113" s="50" t="s">
+      <c r="AK113" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="AL113" s="38">
+      <c r="AL113" s="51">
         <f>AL110+AL111-AL112</f>
-        <v>233224591897.94684</v>
+        <v>222949835907.02539</v>
       </c>
     </row>
     <row r="114" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK114" s="50" t="s">
+      <c r="AK114" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="AL114" s="51">
+      <c r="AL114" s="61">
         <f>AJ34*(1+(5*AP16))</f>
         <v>3436315252.2326035</v>
       </c>
     </row>
     <row r="115" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK115" s="52" t="s">
+      <c r="AK115" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="AL115" s="53">
+      <c r="AL115" s="63">
         <f>AL113/AL114</f>
-        <v>67.870545854725876</v>
+        <v>64.880495397554967</v>
       </c>
     </row>
     <row r="116" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK116" s="50" t="s">
+      <c r="AK116" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="AL116" s="54" cm="1">
+      <c r="AL116" s="64" cm="1">
         <f t="array" ref="AL116">_FV(A1,"Price")</f>
-        <v>51.12</v>
+        <v>50.99</v>
       </c>
     </row>
     <row r="117" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK117" s="55" t="s">
+      <c r="AK117" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="AL117" s="56">
+      <c r="AL117" s="65">
         <f>AL115/AL116-1</f>
-        <v>0.3276710847951072</v>
+        <v>0.27241606976966004</v>
       </c>
     </row>
     <row r="118" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK118" s="55" t="s">
+      <c r="AK118" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="AL118" s="57" t="str">
+      <c r="AL118" s="66" t="str">
         <f>IF(AL115&gt;AL116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Technology/Hardware/Cisco Systems.xlsx
+++ b/Technology/Hardware/Cisco Systems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E2FEF-469D-6F44-85DE-FCDB16D780E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71C37D-B4BC-264B-9696-9BB85DC96FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -953,66 +953,67 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2367,9 +2368,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2378,20 +2377,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2402,23 +2404,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2544,13 +2535,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>52.56</v>
+    <v>53.76</v>
     <v>38.604999999999997</v>
-    <v>0.98829999999999996</v>
-    <v>-0.12</v>
-    <v>-2.3480000000000003E-3</v>
-    <v>0.01</v>
-    <v>1.961E-4</v>
+    <v>0.9889</v>
+    <v>0.49</v>
+    <v>9.2259999999999998E-3</v>
+    <v>-0.24</v>
+    <v>-4.4779999999999993E-3</v>
     <v>USD</v>
     <v>Cisco Systems, Inc. is engaged in designing and selling a range of technologies that power the Internet. The Company is integrating its platforms across networking, security, collaboration, applications and the cloud. The Company operates through three geographic segments: the Americas; Europe, Middle East, and Africa (EMEA), and Asia Pacific, Japan, and China (APJC). The Company's products categories include Secure, Agile Networks; Internet for the Future; Collaboration; End-to-End Security; Optimized Application Experiences; Other Products, and Services. Secure, Agile Networks consists of its core networking technologies of switching, enterprise routing, wireless, and compute products. Internet for the Future consists of its routed optical networking, public fifth generation (5G), silicon, and optics offerings. Collaboration consists of its Collaboration Devices, Meetings, Calling and contact center offerings. End-to-End Security consists of its overall security offerings.</v>
     <v>83300</v>
@@ -2558,25 +2549,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>170 West Tasman Dr, SAN JOSE, CA, 95134-1706 US</v>
-    <v>51.65</v>
+    <v>53.76</v>
     <v>Communications &amp; Networking</v>
     <v>Stock</v>
-    <v>45114.999665705465</v>
+    <v>45132.999665161718</v>
     <v>0</v>
-    <v>50.74</v>
-    <v>207787200000</v>
+    <v>53.11</v>
+    <v>218423108800</v>
     <v>CISCO SYSTEMS, INC.</v>
     <v>CISCO SYSTEMS, INC.</v>
-    <v>51</v>
-    <v>18.3767</v>
-    <v>51.11</v>
-    <v>50.99</v>
-    <v>51</v>
+    <v>53.19</v>
+    <v>19.271999999999998</v>
+    <v>53.11</v>
+    <v>53.6</v>
+    <v>53.36</v>
     <v>4075058000</v>
     <v>CSCO</v>
     <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
-    <v>15580380</v>
-    <v>18033790</v>
+    <v>16136560</v>
+    <v>18879651</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2741,9 +2732,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3164,10 +3155,10 @@
   <dimension ref="A1:AS118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM93" sqref="AM93"/>
+      <selection pane="bottomRight" activeCell="AM100" sqref="AM100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5229,15 +5220,15 @@
       </c>
       <c r="AQ16" s="37">
         <f>AR101/AJ3</f>
-        <v>4.0302422561436853</v>
+        <v>4.236536431522393</v>
       </c>
       <c r="AR16" s="37">
         <f>AR101/AJ28</f>
-        <v>17.591195394514052</v>
+        <v>18.491627903826618</v>
       </c>
       <c r="AS16" s="38">
         <f>AR101/AJ107</f>
-        <v>16.298313593222996</v>
+        <v>17.132567950427486</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5602,15 +5593,15 @@
       </c>
       <c r="AQ19" s="37">
         <f>AR101/AK3</f>
-        <v>3.6552651022059601</v>
+        <v>3.842365492734757</v>
       </c>
       <c r="AR19" s="37">
         <f>AR101/AK28</f>
-        <v>13.294977285814831</v>
+        <v>13.97550123488387</v>
       </c>
       <c r="AS19" s="38">
         <f>AR101/AK106</f>
-        <v>12.309668246445497</v>
+        <v>12.939757630331753</v>
       </c>
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6022,11 +6013,11 @@
       </c>
       <c r="AR22" s="39">
         <f>(-1*AJ98)/AR101</f>
-        <v>2.9953721884697422E-2</v>
+        <v>2.8495153439552178E-2</v>
       </c>
       <c r="AS22" s="40">
         <f>AJ107/AR101</f>
-        <v>6.1356041180592451E-2</v>
+        <v>5.836836619550944E-2</v>
       </c>
     </row>
     <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -7105,6 +7096,21 @@
       <c r="AJ31" s="12">
         <v>2.83</v>
       </c>
+      <c r="AK31" s="64">
+        <v>3.83</v>
+      </c>
+      <c r="AL31" s="64">
+        <v>4.04</v>
+      </c>
+      <c r="AM31" s="64">
+        <v>4.2</v>
+      </c>
+      <c r="AN31" s="64">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO31" s="64">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -12892,10 +12898,10 @@
       <c r="AJ83" s="1">
         <v>-1030000000</v>
       </c>
-      <c r="AQ83" s="41" t="s">
+      <c r="AQ83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AR83" s="42"/>
+      <c r="AR83" s="67"/>
     </row>
     <row r="84" spans="1:44" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13006,10 +13012,10 @@
       <c r="AJ84" s="1">
         <v>-55000000</v>
       </c>
-      <c r="AQ84" s="43" t="s">
+      <c r="AQ84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="AR84" s="43"/>
+      <c r="AR84" s="68"/>
     </row>
     <row r="85" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13120,10 +13126,10 @@
       <c r="AJ85" s="1">
         <v>211000000</v>
       </c>
-      <c r="AQ85" s="44" t="s">
+      <c r="AQ85" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="AR85" s="45">
+      <c r="AR85" s="42">
         <f>AJ17</f>
         <v>360000000</v>
       </c>
@@ -13237,10 +13243,10 @@
       <c r="AJ86" s="1">
         <v>-398000000</v>
       </c>
-      <c r="AQ86" s="44" t="s">
+      <c r="AQ86" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="AR86" s="45">
+      <c r="AR86" s="42">
         <f>AJ56</f>
         <v>1099000000</v>
       </c>
@@ -13354,10 +13360,10 @@
       <c r="AJ87" s="10">
         <v>13226000000</v>
       </c>
-      <c r="AQ87" s="44" t="s">
+      <c r="AQ87" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AR87" s="45">
+      <c r="AR87" s="42">
         <f>AJ61</f>
         <v>8416000000</v>
       </c>
@@ -13471,10 +13477,10 @@
       <c r="AJ88" s="1">
         <v>-477000000</v>
       </c>
-      <c r="AQ88" s="46" t="s">
+      <c r="AQ88" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AR88" s="47">
+      <c r="AR88" s="44">
         <f>AR85/(AR86+AR87)</f>
         <v>3.783499737256963E-2</v>
       </c>
@@ -13623,10 +13629,10 @@
         <f t="shared" si="19"/>
         <v>9.2518959598114712E-3</v>
       </c>
-      <c r="AQ89" s="44" t="s">
+      <c r="AQ89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AR89" s="45">
+      <c r="AR89" s="42">
         <f>AJ27</f>
         <v>2665000000</v>
       </c>
@@ -13740,10 +13746,10 @@
       <c r="AJ90" s="1">
         <v>-373000000</v>
       </c>
-      <c r="AQ90" s="44" t="s">
+      <c r="AQ90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AR90" s="45">
+      <c r="AR90" s="42">
         <f>AJ25</f>
         <v>14477000000</v>
       </c>
@@ -13857,10 +13863,10 @@
       <c r="AJ91" s="1">
         <v>-6256000000</v>
       </c>
-      <c r="AQ91" s="46" t="s">
+      <c r="AQ91" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AR91" s="47">
+      <c r="AR91" s="44">
         <f>AR89/AR90</f>
         <v>0.18408510050424812</v>
       </c>
@@ -13974,10 +13980,10 @@
       <c r="AJ92" s="1">
         <v>8583000000</v>
       </c>
-      <c r="AQ92" s="46" t="s">
+      <c r="AQ92" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AR92" s="47">
+      <c r="AR92" s="44">
         <f>AR88*(1-AR91)</f>
         <v>3.0870138078662186E-2</v>
       </c>
@@ -14091,10 +14097,10 @@
       <c r="AJ93" s="1">
         <v>76000000</v>
       </c>
-      <c r="AQ93" s="43" t="s">
+      <c r="AQ93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AR93" s="43"/>
+      <c r="AR93" s="68"/>
     </row>
     <row r="94" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14205,12 +14211,12 @@
       <c r="AJ94" s="10">
         <v>1553000000</v>
       </c>
-      <c r="AQ94" s="44" t="s">
+      <c r="AQ94" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="AR94" s="67">
+      <c r="AR94" s="63">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14322,12 +14328,12 @@
       <c r="AJ95" s="1">
         <v>-3550000000</v>
       </c>
-      <c r="AQ95" s="49" t="s">
+      <c r="AQ95" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AR95" s="50" cm="1">
+      <c r="AR95" s="47" cm="1">
         <f t="array" ref="AR95">_FV(A1,"Beta")</f>
-        <v>0.98829999999999996</v>
+        <v>0.9889</v>
       </c>
     </row>
     <row r="96" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -14439,10 +14445,10 @@
       <c r="AJ96" s="1">
         <v>660000000</v>
       </c>
-      <c r="AQ96" s="44" t="s">
+      <c r="AQ96" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="AR96" s="48">
+      <c r="AR96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14555,12 +14561,12 @@
       <c r="AJ97" s="1">
         <v>-8381000000</v>
       </c>
-      <c r="AQ97" s="46" t="s">
+      <c r="AQ97" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="AR97" s="47">
+      <c r="AR97" s="44">
         <f>(AR94)+((AR95)*(AR96-AR94))</f>
-        <v>8.348999700000001E-2</v>
+        <v>8.3495727000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14672,10 +14678,10 @@
       <c r="AJ98" s="1">
         <v>-6224000000</v>
       </c>
-      <c r="AQ98" s="43" t="s">
+      <c r="AQ98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="AR98" s="43"/>
+      <c r="AR98" s="68"/>
     </row>
     <row r="99" spans="1:44" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14786,10 +14792,10 @@
       <c r="AJ99" s="1">
         <v>1533000000</v>
       </c>
-      <c r="AQ99" s="44" t="s">
+      <c r="AQ99" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="AR99" s="45">
+      <c r="AR99" s="42">
         <f>AR86+AR87</f>
         <v>9515000000</v>
       </c>
@@ -14903,12 +14909,12 @@
       <c r="AJ100" s="10">
         <v>-15962000000</v>
       </c>
-      <c r="AQ100" s="46" t="s">
+      <c r="AQ100" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="AR100" s="47">
+      <c r="AR100" s="44">
         <f>AR99/AR103</f>
-        <v>4.3786947393997855E-2</v>
+        <v>4.1743787601347337E-2</v>
       </c>
     </row>
     <row r="101" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15020,12 +15026,12 @@
       <c r="AJ101" s="1">
         <v>-180000000</v>
       </c>
-      <c r="AQ101" s="49" t="s">
+      <c r="AQ101" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AR101" s="51" cm="1">
+      <c r="AR101" s="48" cm="1">
         <f t="array" ref="AR101">_FV(A1,"Market cap",TRUE)</f>
-        <v>207787200000</v>
+        <v>218423108800</v>
       </c>
     </row>
     <row r="102" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15137,12 +15143,12 @@
       <c r="AJ102" s="10">
         <v>-1363000000</v>
       </c>
-      <c r="AQ102" s="46" t="s">
+      <c r="AQ102" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AR102" s="47">
+      <c r="AR102" s="44">
         <f>AR101/AR103</f>
-        <v>0.9562130526060022</v>
+        <v>0.95825621239865266</v>
       </c>
     </row>
     <row r="103" spans="1:44" ht="20" x14ac:dyDescent="0.25">
@@ -15254,12 +15260,12 @@
       <c r="AJ103" s="1">
         <v>9942000000</v>
       </c>
-      <c r="AQ103" s="46" t="s">
+      <c r="AQ103" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="AR103" s="52">
+      <c r="AR103" s="49">
         <f>AR99+AR101</f>
-        <v>217302200000</v>
+        <v>227938108800</v>
       </c>
     </row>
     <row r="104" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15371,10 +15377,10 @@
       <c r="AJ104" s="11">
         <v>8579000000</v>
       </c>
-      <c r="AQ104" s="43" t="s">
+      <c r="AQ104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AR104" s="43"/>
+      <c r="AR104" s="68"/>
     </row>
     <row r="105" spans="1:44" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15539,12 +15545,12 @@
       <c r="AP105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AQ105" s="53" t="s">
+      <c r="AQ105" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AR105" s="54">
+      <c r="AR105" s="51">
         <f>(AR100*AR92)+(AR102*AR97)</f>
-        <v>8.1185934005531799E-2</v>
+        <v>8.1298935593671864E-2</v>
       </c>
     </row>
     <row r="106" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15706,10 +15712,10 @@
       <c r="AP106" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="AQ106" s="55" t="s">
+      <c r="AQ106" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="AR106" s="56">
+      <c r="AR106" s="53">
         <f>(SUM(AK4:AO4)/5)</f>
         <v>4.8245759222240503E-2</v>
       </c>
@@ -15829,16 +15835,16 @@
       <c r="AN107" s="28"/>
       <c r="AO107" s="32">
         <f>AO106*(1+AR107)/(AR108-AR107)</f>
-        <v>219817724085.54773</v>
+        <v>257799908708.87802</v>
       </c>
       <c r="AP107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AQ107" s="57" t="s">
+      <c r="AQ107" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AR107" s="58">
-        <v>0.01</v>
+      <c r="AR107" s="55">
+        <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -15860,102 +15866,102 @@
       </c>
       <c r="AO108" s="32">
         <f>AO107+AO106</f>
-        <v>235310724085.54773</v>
+        <v>273292908708.87802</v>
       </c>
       <c r="AP108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AQ108" s="59" t="s">
+      <c r="AQ108" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AR108" s="56">
+      <c r="AR108" s="53">
         <f>AR105</f>
-        <v>8.1185934005531799E-2</v>
+        <v>8.1298935593671864E-2</v>
       </c>
     </row>
     <row r="109" spans="1:44" ht="19" x14ac:dyDescent="0.25">
-      <c r="AK109" s="60" t="s">
+      <c r="AK109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AL109" s="60"/>
+      <c r="AL109" s="65"/>
     </row>
     <row r="110" spans="1:44" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK110" s="61" t="s">
+      <c r="AK110" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="AL110" s="51">
+      <c r="AL110" s="48">
         <f>NPV(AR108,AK108,AL108,AM108,AN108,AO108)</f>
-        <v>213197835907.02539</v>
+        <v>238796453952.76218</v>
       </c>
     </row>
     <row r="111" spans="1:44" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK111" s="61" t="s">
+      <c r="AK111" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AL111" s="51">
+      <c r="AL111" s="48">
         <f>AJ40</f>
         <v>19267000000</v>
       </c>
     </row>
     <row r="112" spans="1:44" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK112" s="61" t="s">
+      <c r="AK112" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="AL112" s="51">
+      <c r="AL112" s="48">
         <f>AR99</f>
         <v>9515000000</v>
       </c>
     </row>
     <row r="113" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK113" s="61" t="s">
+      <c r="AK113" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="AL113" s="51">
+      <c r="AL113" s="48">
         <f>AL110+AL111-AL112</f>
-        <v>222949835907.02539</v>
+        <v>248548453952.76218</v>
       </c>
     </row>
     <row r="114" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK114" s="61" t="s">
+      <c r="AK114" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="AL114" s="61">
+      <c r="AL114" s="57">
         <f>AJ34*(1+(5*AP16))</f>
         <v>3436315252.2326035</v>
       </c>
     </row>
     <row r="115" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK115" s="62" t="s">
+      <c r="AK115" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="AL115" s="63">
+      <c r="AL115" s="59">
         <f>AL113/AL114</f>
-        <v>64.880495397554967</v>
+        <v>72.329933579661557</v>
       </c>
     </row>
     <row r="116" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK116" s="61" t="s">
+      <c r="AK116" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="AL116" s="64" cm="1">
+      <c r="AL116" s="60" cm="1">
         <f t="array" ref="AL116">_FV(A1,"Price")</f>
-        <v>50.99</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="117" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK117" s="62" t="s">
+      <c r="AK117" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="AL117" s="65">
+      <c r="AL117" s="61">
         <f>AL115/AL116-1</f>
-        <v>0.27241606976966004</v>
+        <v>0.349439059322044</v>
       </c>
     </row>
     <row r="118" spans="37:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AK118" s="62" t="s">
+      <c r="AK118" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="AL118" s="66" t="str">
+      <c r="AL118" s="62" t="str">
         <f>IF(AL115&gt;AL116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
